--- a/data/input/absenteeism_data_3.xlsx
+++ b/data/input/absenteeism_data_3.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31536</v>
+        <v>52806</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Miguel Novaes</t>
+          <t>Noah Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>3606.19</v>
+        <v>12429.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68965</v>
+        <v>55242</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel Sales</t>
+          <t>Elisa Fernandes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>3127.05</v>
+        <v>4949.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48398</v>
+        <v>91256</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agatha da Rosa</t>
+          <t>Sr. Henrique Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,200 +548,200 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>12481.63</v>
+        <v>3258.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11878</v>
+        <v>50270</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Letícia Ribeiro</t>
+          <t>Leandro Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>4673.88</v>
+        <v>5324.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41024</v>
+        <v>16969</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beatriz Jesus</t>
+          <t>Sr. Lucas Gabriel Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>6540.34</v>
+        <v>3737.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39221</v>
+        <v>45213</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Pedro Fogaça</t>
+          <t>Marcelo Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>3729.67</v>
+        <v>10095.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37621</v>
+        <v>35311</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esther da Conceição</t>
+          <t>Maria Fernanda da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>7467.38</v>
+        <v>6890.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24703</v>
+        <v>50051</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joana Duarte</t>
+          <t>Luiz Miguel Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>6641.13</v>
+        <v>9166.030000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65618</v>
+        <v>81471</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marina Gomes</t>
+          <t>Nathan Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>10926.48</v>
+        <v>3155.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23842</v>
+        <v>78918</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Elisa Azevedo</t>
+          <t>Bernardo Rodrigues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>8684.24</v>
+        <v>4473.27</v>
       </c>
     </row>
   </sheetData>
